--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FFAA858-364A-41F3-8288-2C7BC1B6D0E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9BD53-0B39-4DFA-B4F6-52C7D5D26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>JTDKARFP5J3103946</t>
+  </si>
+  <si>
+    <t>1FMCU9GD1HUA30879</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,6 +442,17 @@
         <v>20000</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3A9BD53-0B39-4DFA-B4F6-52C7D5D26C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5071AA2-6680-4307-9856-249B448C59DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -46,6 +46,24 @@
   </si>
   <si>
     <t>1FMCU9GD1HUA30879</t>
+  </si>
+  <si>
+    <t>3FA6P0LU1KR242602</t>
+  </si>
+  <si>
+    <t>1FTEX1E51KKC66386</t>
+  </si>
+  <si>
+    <t>2hgfc2f78jh564740</t>
+  </si>
+  <si>
+    <t>5NPE24AF0KH767637</t>
+  </si>
+  <si>
+    <t>KL4CJFSB9JB683036</t>
+  </si>
+  <si>
+    <t>1LN6L9NP1J5616818</t>
   </si>
 </sst>
 </file>
@@ -398,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,6 +471,72 @@
         <v>25000</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C5" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C6" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C8" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C9" s="1">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>24000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7A6A644-2BA3-48DB-BBE0-09B6B31F9DD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BC654-24BC-45E2-8ACE-8B16A0F7ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -64,6 +64,15 @@
   </si>
   <si>
     <t>1LN6L9NP1J5616818</t>
+  </si>
+  <si>
+    <t>For sale</t>
+  </si>
+  <si>
+    <t>In-transit</t>
+  </si>
+  <si>
+    <t>Sold</t>
   </si>
 </sst>
 </file>
@@ -416,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+      <selection activeCell="D8" sqref="D8:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -427,7 +436,7 @@
     <col min="1" max="1" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,8 +446,11 @@
       <c r="C1" s="1">
         <v>19000</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -448,8 +460,11 @@
       <c r="C2" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -459,8 +474,11 @@
       <c r="C3" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -470,8 +488,11 @@
       <c r="C4" s="1">
         <v>19000</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -481,8 +502,11 @@
       <c r="C5" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -492,8 +516,11 @@
       <c r="C6" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -503,8 +530,11 @@
       <c r="C7" s="1">
         <v>19000</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -514,8 +544,11 @@
       <c r="C8" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -525,8 +558,11 @@
       <c r="C9" s="1">
         <v>20000</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="D9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -535,6 +571,9 @@
       </c>
       <c r="C10" s="1">
         <v>20000</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76BC654-24BC-45E2-8ACE-8B16A0F7ECB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29508A9D-D711-43C7-BF2F-4B8135D19268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -73,6 +73,36 @@
   </si>
   <si>
     <t>Sold</t>
+  </si>
+  <si>
+    <t>5YJ3E1EA5JF098290</t>
+  </si>
+  <si>
+    <t>1C4RJFLG1HC603078</t>
+  </si>
+  <si>
+    <t>3FA6P0LU1KR101755</t>
+  </si>
+  <si>
+    <t>JTMRWRFV7LJ048851</t>
+  </si>
+  <si>
+    <t>1G1RE6E42EU111830</t>
+  </si>
+  <si>
+    <t>SADCJ2BN5HA086947</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KNMAT2MV3JP608780 </t>
+  </si>
+  <si>
+    <t>5NPD84LF6KH490922</t>
+  </si>
+  <si>
+    <t>5npe34af3jh646547</t>
+  </si>
+  <si>
+    <t>55SWF4KB5GU142000</t>
   </si>
 </sst>
 </file>
@@ -425,10 +455,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8:D10"/>
+      <selection activeCell="E11" sqref="E11:E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +466,7 @@
     <col min="1" max="1" width="23.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -446,11 +476,14 @@
       <c r="C1" s="1">
         <v>19000</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -460,11 +493,14 @@
       <c r="C2" s="1">
         <v>20000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -474,11 +510,14 @@
       <c r="C3" s="1">
         <v>20000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -488,11 +527,14 @@
       <c r="C4" s="1">
         <v>19000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E4" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -502,11 +544,14 @@
       <c r="C5" s="1">
         <v>20000</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -516,11 +561,14 @@
       <c r="C6" s="1">
         <v>20000</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -530,11 +578,14 @@
       <c r="C7" s="1">
         <v>19000</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -544,11 +595,14 @@
       <c r="C8" s="1">
         <v>20000</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -558,11 +612,14 @@
       <c r="C9" s="1">
         <v>20000</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -572,7 +629,180 @@
       <c r="C10" s="1">
         <v>20000</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C11" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D11" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C12" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D12" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D13" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>16</v>
+      </c>
+      <c r="B14" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C14" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D14" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C15" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D15" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D16" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C17" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D17" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C18" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D19" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C20" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D20" s="1">
+        <v>18000</v>
+      </c>
+      <c r="E20" t="s">
         <v>12</v>
       </c>
     </row>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29508A9D-D711-43C7-BF2F-4B8135D19268}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F5F08-0C98-467B-B3F3-69DA87F6AD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:E20"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -471,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="1">
-        <v>17000</v>
+        <v>11000</v>
       </c>
       <c r="C1" s="1">
-        <v>19000</v>
+        <v>15000</v>
       </c>
       <c r="D1" s="1">
-        <v>16000</v>
+        <v>11000</v>
       </c>
       <c r="E1" t="s">
         <v>10</v>
@@ -494,7 +494,7 @@
         <v>20000</v>
       </c>
       <c r="D2" s="1">
-        <v>16000</v>
+        <v>12000</v>
       </c>
       <c r="E2" t="s">
         <v>11</v>
@@ -528,7 +528,7 @@
         <v>19000</v>
       </c>
       <c r="D4" s="1">
-        <v>16000</v>
+        <v>14000</v>
       </c>
       <c r="E4" t="s">
         <v>11</v>
@@ -545,7 +545,7 @@
         <v>20000</v>
       </c>
       <c r="D5" s="1">
-        <v>16000</v>
+        <v>15000</v>
       </c>
       <c r="E5" t="s">
         <v>10</v>
@@ -562,7 +562,7 @@
         <v>20000</v>
       </c>
       <c r="D6" s="1">
-        <v>13000</v>
+        <v>16000</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
@@ -579,7 +579,7 @@
         <v>19000</v>
       </c>
       <c r="D7" s="1">
-        <v>16000</v>
+        <v>17600</v>
       </c>
       <c r="E7" t="s">
         <v>12</v>
@@ -596,7 +596,7 @@
         <v>20000</v>
       </c>
       <c r="D8" s="1">
-        <v>16000</v>
+        <v>1800</v>
       </c>
       <c r="E8" t="s">
         <v>12</v>
@@ -613,7 +613,7 @@
         <v>20000</v>
       </c>
       <c r="D9" s="1">
-        <v>13000</v>
+        <v>5000</v>
       </c>
       <c r="E9" t="s">
         <v>12</v>
@@ -630,7 +630,7 @@
         <v>20000</v>
       </c>
       <c r="D10" s="1">
-        <v>18000</v>
+        <v>2000</v>
       </c>
       <c r="E10" t="s">
         <v>12</v>
@@ -647,7 +647,7 @@
         <v>19000</v>
       </c>
       <c r="D11" s="1">
-        <v>16000</v>
+        <v>20000</v>
       </c>
       <c r="E11" t="s">
         <v>10</v>
@@ -664,7 +664,7 @@
         <v>20000</v>
       </c>
       <c r="D12" s="1">
-        <v>16000</v>
+        <v>7000</v>
       </c>
       <c r="E12" t="s">
         <v>11</v>
@@ -681,7 +681,7 @@
         <v>20000</v>
       </c>
       <c r="D13" s="1">
-        <v>13000</v>
+        <v>180</v>
       </c>
       <c r="E13" t="s">
         <v>10</v>
@@ -698,7 +698,7 @@
         <v>19000</v>
       </c>
       <c r="D14" s="1">
-        <v>16000</v>
+        <v>200</v>
       </c>
       <c r="E14" t="s">
         <v>11</v>
@@ -715,7 +715,7 @@
         <v>20000</v>
       </c>
       <c r="D15" s="1">
-        <v>16000</v>
+        <v>150</v>
       </c>
       <c r="E15" t="s">
         <v>10</v>
@@ -732,7 +732,7 @@
         <v>20000</v>
       </c>
       <c r="D16" s="1">
-        <v>13000</v>
+        <v>100000</v>
       </c>
       <c r="E16" t="s">
         <v>11</v>
@@ -749,7 +749,7 @@
         <v>19000</v>
       </c>
       <c r="D17" s="1">
-        <v>16000</v>
+        <v>2000</v>
       </c>
       <c r="E17" t="s">
         <v>12</v>
@@ -766,7 +766,7 @@
         <v>20000</v>
       </c>
       <c r="D18" s="1">
-        <v>16000</v>
+        <v>78990</v>
       </c>
       <c r="E18" t="s">
         <v>12</v>
@@ -783,7 +783,7 @@
         <v>20000</v>
       </c>
       <c r="D19" s="1">
-        <v>13000</v>
+        <v>2947</v>
       </c>
       <c r="E19" t="s">
         <v>12</v>
@@ -800,7 +800,7 @@
         <v>20000</v>
       </c>
       <c r="D20" s="1">
-        <v>18000</v>
+        <v>3827</v>
       </c>
       <c r="E20" t="s">
         <v>12</v>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{312F5F08-0C98-467B-B3F3-69DA87F6AD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE7061B-1577-44E2-9728-31E33F8FB660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
+    <workbookView xWindow="34365" yWindow="2145" windowWidth="21600" windowHeight="11235" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -75,9 +75,6 @@
     <t>Sold</t>
   </si>
   <si>
-    <t>5YJ3E1EA5JF098290</t>
-  </si>
-  <si>
     <t>1C4RJFLG1HC603078</t>
   </si>
   <si>
@@ -103,6 +100,9 @@
   </si>
   <si>
     <t>55SWF4KB5GU142000</t>
+  </si>
+  <si>
+    <t>3HGGK5H82KM719817</t>
   </si>
 </sst>
 </file>
@@ -458,7 +458,7 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection sqref="A1:A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE7061B-1577-44E2-9728-31E33F8FB660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753B2A2-18C2-49C0-A4B6-2263E494B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34365" yWindow="2145" windowWidth="21600" windowHeight="11235" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -90,19 +90,19 @@
     <t>SADCJ2BN5HA086947</t>
   </si>
   <si>
+    <t>5NPD84LF6KH490922</t>
+  </si>
+  <si>
+    <t>5npe34af3jh646547</t>
+  </si>
+  <si>
+    <t>55SWF4KB5GU142000</t>
+  </si>
+  <si>
+    <t>3HGGK5H82KM719817</t>
+  </si>
+  <si>
     <t xml:space="preserve">KNMAT2MV3JP608780 </t>
-  </si>
-  <si>
-    <t>5NPD84LF6KH490922</t>
-  </si>
-  <si>
-    <t>5npe34af3jh646547</t>
-  </si>
-  <si>
-    <t>55SWF4KB5GU142000</t>
-  </si>
-  <si>
-    <t>3HGGK5H82KM719817</t>
   </si>
 </sst>
 </file>
@@ -457,8 +457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A20"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +723,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16" s="1">
         <v>15000</v>
@@ -740,7 +740,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B17" s="1">
         <v>17000</v>
@@ -757,7 +757,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B18" s="1">
         <v>16000</v>
@@ -774,7 +774,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1">
         <v>15000</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B20" s="1">
         <v>15000</v>

--- a/sampleSpreadsheet.xlsx
+++ b/sampleSpreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ericx\Documents\dev\david-steven-eric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4753B2A2-18C2-49C0-A4B6-2263E494B1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{766F64D1-3331-47D6-A2B1-1975D8E75F36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{836594FC-68A9-460B-8AAE-FCA68522931D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="73">
   <si>
     <t>3HGGK5H88KM742051</t>
   </si>
@@ -99,10 +99,160 @@
     <t>55SWF4KB5GU142000</t>
   </si>
   <si>
-    <t>3HGGK5H82KM719817</t>
-  </si>
-  <si>
     <t xml:space="preserve">KNMAT2MV3JP608780 </t>
+  </si>
+  <si>
+    <t>5N1DR2MM3HC676500</t>
+  </si>
+  <si>
+    <t>km8k1caa8ku280255</t>
+  </si>
+  <si>
+    <t>ja4ap3au5ku004554</t>
+  </si>
+  <si>
+    <t>4T1G11AK8LU931436</t>
+  </si>
+  <si>
+    <t>5LMCJ4D97KUL29342</t>
+  </si>
+  <si>
+    <t>5LMCJ3D93KUL07493</t>
+  </si>
+  <si>
+    <t>WA1BNAFY7J2228980</t>
+  </si>
+  <si>
+    <t>1GYS4KKJ5KR322303</t>
+  </si>
+  <si>
+    <t>2C4RC1BG1KR630004</t>
+  </si>
+  <si>
+    <t>2C3CDZKG4KH500584</t>
+  </si>
+  <si>
+    <t>1C4PJMDX9KD438148</t>
+  </si>
+  <si>
+    <t>5YJ3E1EA5JF098290</t>
+  </si>
+  <si>
+    <t>4S4BRBKC3D3315246</t>
+  </si>
+  <si>
+    <t>JTDKN3DU1D5672005</t>
+  </si>
+  <si>
+    <t>5NPE34AF8KH807332</t>
+  </si>
+  <si>
+    <t>JTNK4RBE9K3018486</t>
+  </si>
+  <si>
+    <t>2T1BURHE2KC206124</t>
+  </si>
+  <si>
+    <t>5YFEPMAE4MP176418</t>
+  </si>
+  <si>
+    <t>JM3KE4DY8G0918453</t>
+  </si>
+  <si>
+    <t>5TFUY5F14MX046497</t>
+  </si>
+  <si>
+    <t>KM8J3CAL7KU070141</t>
+  </si>
+  <si>
+    <t>5NPD84LF8LH623701</t>
+  </si>
+  <si>
+    <t>KM8J3CA43KU038019</t>
+  </si>
+  <si>
+    <t>5XXGT4L38LG413032</t>
+  </si>
+  <si>
+    <t>1HGCV1F33KA145408</t>
+  </si>
+  <si>
+    <t>3CZRU5H51GM719638</t>
+  </si>
+  <si>
+    <t>KMHD74LF0KU855907</t>
+  </si>
+  <si>
+    <t>4S4BSENCXG3310650</t>
+  </si>
+  <si>
+    <t>19XFC2F85HE225883</t>
+  </si>
+  <si>
+    <t>5NMZUDLB9HH043201</t>
+  </si>
+  <si>
+    <t>2GNALDEK8G1176099</t>
+  </si>
+  <si>
+    <t>1HGCR2F88HA045657</t>
+  </si>
+  <si>
+    <t>3MZBN1L35JM252134</t>
+  </si>
+  <si>
+    <t>3VV2B7AX4KM058671</t>
+  </si>
+  <si>
+    <t>1VWJM7A36JC034693</t>
+  </si>
+  <si>
+    <t>3C4NJDBB0KT599254</t>
+  </si>
+  <si>
+    <t>JM1BPAMM8K1135148</t>
+  </si>
+  <si>
+    <t>1G6AT5S35E0135937</t>
+  </si>
+  <si>
+    <t>5FPYK3F74HB005287</t>
+  </si>
+  <si>
+    <t>3VV4B7AX5JM107254</t>
+  </si>
+  <si>
+    <t>KM8K3CA34NU800743</t>
+  </si>
+  <si>
+    <t>5N1DL0MM1KC530268</t>
+  </si>
+  <si>
+    <t>1C4RJFBG6JC368927</t>
+  </si>
+  <si>
+    <t>JM3TCBDY9K0319066</t>
+  </si>
+  <si>
+    <t>2T2BZMCA4KC186494</t>
+  </si>
+  <si>
+    <t>58ADZ1B14MU108966</t>
+  </si>
+  <si>
+    <t>5J8YD4H05LL014063</t>
+  </si>
+  <si>
+    <t>19UUB5F5XNA000554</t>
+  </si>
+  <si>
+    <t>19UUB1F57KA003738</t>
+  </si>
+  <si>
+    <t>KNDJ23AU7L7071418</t>
+  </si>
+  <si>
+    <t>JTJDZKCA0J2004365</t>
   </si>
 </sst>
 </file>
@@ -455,10 +605,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C144B6EC-AC97-45AB-ADA1-F61A2B03E922}">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -723,7 +873,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B16" s="1">
         <v>15000</v>
@@ -791,7 +941,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>15000</v>
@@ -804,6 +954,856 @@
       </c>
       <c r="E20" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C21" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E21" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C22" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C23" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E23" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C24" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E24" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C25" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C26" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D26" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C27" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E27" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C28" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D28" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C29" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D29" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E30" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D31" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C32" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C33" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D33" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E33" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C34" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D34" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C35" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D35" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C36" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D36" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C37" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D37" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E37" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D38" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E38" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D39" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B40" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C40" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D40" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C41" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D41" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E41" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C42" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E42" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C43" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D43" s="1">
+        <v>13400</v>
+      </c>
+      <c r="E43" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C44" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D44" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E44" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C45" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1000</v>
+      </c>
+      <c r="E45" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C46" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D46" s="1">
+        <v>2000</v>
+      </c>
+      <c r="E46" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C47" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D47" s="1">
+        <v>3000</v>
+      </c>
+      <c r="E47" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C48" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D48" s="1">
+        <v>4000</v>
+      </c>
+      <c r="E48" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C49" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D49" s="1">
+        <v>5000</v>
+      </c>
+      <c r="E49" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C50" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D50" s="1">
+        <v>6000</v>
+      </c>
+      <c r="E50" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C51" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D51" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E51" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>54</v>
+      </c>
+      <c r="B52" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C52" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D52" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C53" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D53" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E53" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C54" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E54" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C55" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D55" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E55" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C56" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D56" s="1">
+        <v>7000</v>
+      </c>
+      <c r="E56" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C57" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D57" s="1">
+        <v>8000</v>
+      </c>
+      <c r="E57" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C58" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D58" s="1">
+        <v>9000</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C59" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D59" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C60" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D60" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C61" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D61" s="1">
+        <v>10000</v>
+      </c>
+      <c r="E61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C62" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D62" s="1">
+        <v>16000</v>
+      </c>
+      <c r="E62" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="1">
+        <v>15000</v>
+      </c>
+      <c r="C63" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D63" s="1">
+        <v>20000</v>
+      </c>
+      <c r="E63" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="1">
+        <v>17000</v>
+      </c>
+      <c r="C64" s="1">
+        <v>19000</v>
+      </c>
+      <c r="D64" s="1">
+        <v>12000</v>
+      </c>
+      <c r="E64" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="1">
+        <v>16000</v>
+      </c>
+      <c r="C65" s="1">
+        <v>20000</v>
+      </c>
+      <c r="D65" s="1">
+        <v>13000</v>
+      </c>
+      <c r="E65" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C66" s="1">
+        <v>28000</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1200</v>
+      </c>
+      <c r="E66" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>69</v>
+      </c>
+      <c r="B67" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C67" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D67" s="1">
+        <v>13400</v>
+      </c>
+      <c r="E67" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C68" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D68" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E68" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>71</v>
+      </c>
+      <c r="B69" s="1">
+        <v>18000</v>
+      </c>
+      <c r="C69" s="1">
+        <v>22000</v>
+      </c>
+      <c r="D69" s="1">
+        <v>13400</v>
+      </c>
+      <c r="E69" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="1">
+        <v>20000</v>
+      </c>
+      <c r="C70" s="1">
+        <v>25000</v>
+      </c>
+      <c r="D70" s="1">
+        <v>23000</v>
+      </c>
+      <c r="E70" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
